--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2037300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2116500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2180200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2115000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1938900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1969700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1807200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1712400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1628100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1674600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1673600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1557700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1535700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1462400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>6900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>5800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1962100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2219500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2008500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1857400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1751300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2093900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1805400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1503500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1355300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1443300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2175100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1396600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1306800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1347400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="F18" s="3">
         <v>171700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>257600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>187600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-124200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>208900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>272800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>231400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-501500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>161100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>228900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>115000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,38 +1243,40 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-523000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>190400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-16600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>143700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>392400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-741800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>370200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>185300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-42600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1222,184 +1289,214 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-414700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>121900</v>
+      </c>
+      <c r="F21" s="3">
         <v>183000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>430500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>607700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-834100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>403000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>425500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>263200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>260200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-465000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>195200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>264500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>160400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F22" s="3">
         <v>25700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>25100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>23500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>24700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>22200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>22300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>21500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>20300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>20800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>20900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>20200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-466200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F23" s="3">
         <v>129300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>376200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>556400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-890700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>349900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>371800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>208600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>211000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-522300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>140100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>207900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>94800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>71400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>108500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-186300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>60400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>73400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>37400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>52600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-212400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>37500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>58600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>24900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-368400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F26" s="3">
         <v>101300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>304800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>447900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-704400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>289500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>298400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>171200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>158400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-309900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>102700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>149400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>69900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-368100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F27" s="3">
         <v>90400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>295500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>440200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-712100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>284900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>295100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>171600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>153300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-314200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>101800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>149200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>69500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1689,37 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>6900</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,38 +1839,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-190400</v>
+      </c>
+      <c r="F32" s="3">
         <v>16600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-143700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-392400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>741800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-370200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-185300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>42600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-361200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F33" s="3">
         <v>90400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>295500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>440200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-712100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>284900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>295100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>171600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>153300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-314200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>101800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>149200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>69500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-361200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F35" s="3">
         <v>90400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>295500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>440200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-712100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>284900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>295100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>171600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>153300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-314200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>101800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>149200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>69500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1555200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1179100</v>
+      </c>
+      <c r="F41" s="3">
         <v>897500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>824800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>778100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1038800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>646900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>623200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>711000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>838400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>701800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>643700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>624400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>594100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>948000</v>
+      </c>
+      <c r="F43" s="3">
         <v>928700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>965500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>946200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>842600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>839000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>832000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>856100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>797300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>877800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>852800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>806700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>743700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2434,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16839000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18895900</v>
+      </c>
+      <c r="F47" s="3">
         <v>18895600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>18777300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>18387800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>17639700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>19142900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>18712400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>18552800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>18831700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>19054500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>18680600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>18310300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>18137200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>415100</v>
+      </c>
+      <c r="F48" s="3">
         <v>418400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>418700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>415300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>195200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>196300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>197700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>198700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>125300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>130500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>130400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>111400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>112900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1218500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1072700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1069000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1005400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1008300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>811900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>809800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>812800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>793900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>798700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>790500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>659900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>663700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>189800</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>10300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>164900</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>61800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>123900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>136500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>266300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>185400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>265100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>354900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25752900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26931600</v>
+      </c>
+      <c r="F54" s="3">
         <v>26490800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>26356400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>25793100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>25344900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>25795900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25085900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25097300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25384300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25714200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24529500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>23939100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>23756600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14919600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14924000</v>
+      </c>
+      <c r="F59" s="3">
         <v>14554600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14526600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14642400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14686000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14316300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13955200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14126100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14209900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14895600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13435300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13317100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13353400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,76 +3074,88 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1514400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1751100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1695300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1714700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1676400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1669000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1581700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1569400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1540900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1484900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1486400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1487500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1471200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1476500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>42900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>6200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2874,17 +3165,23 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17895900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18154900</v>
+      </c>
+      <c r="F66" s="3">
         <v>17662200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17670500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17556600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>17652200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17200800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16681500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16723900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16870300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>17513200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16094200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15754300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15816600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5855400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6435200</v>
+      </c>
+      <c r="F72" s="3">
         <v>6403500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6313000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6017600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5577400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>6289400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6004500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5709400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5091300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4950900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5265000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5163200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5014000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7857100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8776700</v>
+      </c>
+      <c r="F76" s="3">
         <v>8828700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8685900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8236500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7692700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8595100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8404400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8373400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8514100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8201000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8435300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8184800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7939900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-361200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F81" s="3">
         <v>90400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>295500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>440200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-712100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>284900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>295100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>171600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>153300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-314200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>101800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>149200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>69500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F83" s="3">
         <v>28000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>29200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>31900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>30900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>31400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>33100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>36500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>34100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>35700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>45400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>286200</v>
+      </c>
+      <c r="F89" s="3">
         <v>254700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>240000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-66400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>78600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>174600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>154300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>19700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>222200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>246400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-42500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>219300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>15600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-25700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>892800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-135300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-201200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-112000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>476000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-115400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-47600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>32400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>126600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-159000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-214000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>91200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-201000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4613,15 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-215000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4172,14 +4639,14 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-154000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-44300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-83700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-159400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-31000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-185700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-160600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-22800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-18600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-8900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>9600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>7500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>376100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>281600</v>
+      </c>
+      <c r="F102" s="3">
         <v>72700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>46800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-260700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>391900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>23700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-87800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-127300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>136500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>19200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>30400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1968200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2037300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2116500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2180200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2115000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1938900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1969700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1807200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1712400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1628100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1674600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1673600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1557700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1535700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1462400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>31400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E15" s="3">
         <v>9600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5300</v>
       </c>
       <c r="M15" s="3">
         <v>5300</v>
       </c>
       <c r="N15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O15" s="3">
         <v>5800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1958300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1962100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2219500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2008500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1857400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1751300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2093900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1805400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1503500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1355300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1443300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2175100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1396600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1306800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1347400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E18" s="3">
         <v>75200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-103000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>171700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>257600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>187600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-124200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>208900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>272800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>231400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-501500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>161100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>228900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>115000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,41 +1278,42 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-523000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>190400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-16600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>143700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>392400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-741800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>370200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>185300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1295,208 +1329,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>292300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-414700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>183000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>430500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>607700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-834100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>403000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>425500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>263200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>260200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-465000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>195200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>264500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E22" s="3">
         <v>18400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-466200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>61700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>129300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>376200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>556400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-890700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>349900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>371800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>208600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>211000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-522300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>140100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>207900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>94800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-97800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>71400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>108500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-186300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>60400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-212400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-368400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>101300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>304800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>447900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-704400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>289500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>298400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>171200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-309900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>102700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>149400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>69900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-368100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>90400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>295500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>440200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-712100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>284900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>295100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>171600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>153300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-314200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>101800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>149200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,17 +1753,20 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>6900</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1721,8 +1782,8 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,41 +1912,44 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-242100</v>
+      </c>
+      <c r="E32" s="3">
         <v>523000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-190400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>16600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-143700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-392400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>741800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-370200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-185300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-361200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>90400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>295500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>440200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-712100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>284900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>295100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>171600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>153300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-314200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>101800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>149200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-361200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>90400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>295500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>440200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-712100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>284900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>295100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>171600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>153300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-314200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>101800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>149200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1652700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1555200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1179100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>897500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>824800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>778100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1038800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>646900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>623200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>711000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>838400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>701800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>643700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>624400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>594100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1089500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1092000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>948000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>928700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>965500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>946200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>842600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>839000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>832000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>856100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>797300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>877800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>852800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>806700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>743700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18609500</v>
+      </c>
+      <c r="E47" s="3">
         <v>16839000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18895900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18895600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18777300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18387800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17639700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19142900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18712400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18552800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18831700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19054500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18680600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18310300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18137200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>272400</v>
+      </c>
+      <c r="E48" s="3">
         <v>208300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>415100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>418400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>418700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>415300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>195200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>196300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>197700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>198700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>130500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>112900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1218500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1209000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1072700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1069000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1005400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1008300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>811900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>809800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>812800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>793900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>798700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>790500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>659900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>663700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E52" s="3">
         <v>189800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>10300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>164900</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>61800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>136500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>266300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>185400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>265100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>354900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27620900</v>
+      </c>
+      <c r="E54" s="3">
         <v>25752900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26931600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26490800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26356400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25793100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25344900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25795900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25085900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25097300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25384300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25714200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24529500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23939100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23756600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15037400</v>
+      </c>
+      <c r="E59" s="3">
         <v>14919600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14924000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14554600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14526600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14642400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14686000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14316300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13955200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14126100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14209900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14895600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13435300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13317100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13353400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2017900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1514400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1751100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1695300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1714700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1676400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1669000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1581700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1569400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1540900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1484900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1486400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1487500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1471200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1476500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,24 +3287,24 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3171,8 +3317,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19164600</v>
+      </c>
+      <c r="E66" s="3">
         <v>17895900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18154900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17662200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17670500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17556600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17652200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17200800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16681500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16723900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16870300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17513200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16094200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15754300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15816600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6032700</v>
+      </c>
+      <c r="E72" s="3">
         <v>5855400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6435200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6403500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6313000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6017600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5577400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6289400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6004500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5709400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5091300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4950900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5265000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5163200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5014000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8456200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7857100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8776700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8828700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8685900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8236500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7692700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8595100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8404400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8373400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8514100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8201000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8435300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8184800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7939900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-361200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>90400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>295500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>440200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-712100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>284900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>295100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>171600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>153300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-314200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>101800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>149200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E83" s="3">
         <v>33200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>286200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>254700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>240000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-66400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>78600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>174600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>154300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>222200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>246400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-42500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>219300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>15600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-621500</v>
+      </c>
+      <c r="E94" s="3">
         <v>892800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-135300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-201200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-112000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>476000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-115400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>32400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>126600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-159000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-214000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>91200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-201000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,17 +4848,18 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-215000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4645,11 +4879,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-154000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-44300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-83700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-159400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-185700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-160600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E102" s="3">
         <v>376100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>281600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>72700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-260700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>391900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-87800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-127300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>136500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2426700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1968200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2037300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2116500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2180200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2115000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1938900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1969700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1807200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1712400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1628100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1674600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1673600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1557700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1535700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1462400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-17000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E15" s="3">
         <v>12100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5300</v>
       </c>
       <c r="N15" s="3">
         <v>5300</v>
       </c>
       <c r="O15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P15" s="3">
         <v>5800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2328200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1958300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1962100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2219500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2008500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1857400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1751300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2093900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1805400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1503500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1355300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1443300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2175100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1396600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1306800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1347400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E18" s="3">
         <v>9900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>75200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-103000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>171700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>257600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>187600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-124200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>208900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>272800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>231400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-501500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>161100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>228900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>115000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,44 +1312,45 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E20" s="3">
         <v>242100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-523000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>190400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>143700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>392400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-741800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>370200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>185300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-42600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1332,220 +1366,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>232500</v>
+      </c>
+      <c r="E21" s="3">
         <v>292300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-414700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>121900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>430500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>607700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-834100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>403000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>425500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>263200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>260200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-465000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>195200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>264500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>160400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E22" s="3">
         <v>22200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E23" s="3">
         <v>229800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-466200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>129300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>376200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>556400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-890700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>349900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>371800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>208600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>211000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-522300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>140100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>207900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>94800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E24" s="3">
         <v>53400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-97800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>71400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>108500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-186300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>73400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-212400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E26" s="3">
         <v>176500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-368400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>304800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>447900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-704400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>289500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>298400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>171200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>158400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-309900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>102700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>149400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>69900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E27" s="3">
         <v>177400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-368100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>90400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>295500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>440200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-712100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>284900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>295100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>171600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>153300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-314200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>101800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>149200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>69500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1765,11 +1826,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>6900</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1785,8 +1846,8 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,44 +1982,47 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-242100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>523000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-190400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-143700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-392400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>741800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-370200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-185300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>42600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E33" s="3">
         <v>177400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-361200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>90400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>295500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>440200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-712100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>284900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>295100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>171600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>153300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-314200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>101800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>149200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>69500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E35" s="3">
         <v>177400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-361200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>90400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>295500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>440200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-712100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>284900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>295100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>171600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>153300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-314200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>101800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>149200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>69500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1230600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1652700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1555200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1179100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>897500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>824800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>778100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1038800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>646900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>623200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>711000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>838400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>701800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>643700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>624400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>594100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1092300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1089500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1092000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>948000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>928700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>965500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>946200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>842600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>839000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>832000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>856100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>797300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>877800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>852800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>806700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>743700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19517100</v>
+      </c>
+      <c r="E47" s="3">
         <v>18609500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16839000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18895900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18895600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18777300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18387800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17639700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19142900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18712400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18552800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18831700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19054500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18680600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18310300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18137200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>270200</v>
+      </c>
+      <c r="E48" s="3">
         <v>272400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>208300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>415100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>418400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>418700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>415300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>195200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>196300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>197700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>198700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>112900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1411400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1422000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1218500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1209000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1072700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1069000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1005400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1008300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>811900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>809800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>812800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>793900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>798700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>790500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>659900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>663700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
         <v>48000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>189800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>10300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>164900</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>61800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>136500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>266300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>185400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>265100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>354900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28452600</v>
+      </c>
+      <c r="E54" s="3">
         <v>27620900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25752900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26931600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26490800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26356400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25793100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25344900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25795900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25085900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25097300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25384300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25714200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24529500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23939100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23756600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15777300</v>
+      </c>
+      <c r="E59" s="3">
         <v>15037400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14919600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14924000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14554600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14526600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14642400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14686000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14316300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13955200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14126100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14209900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14895600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13435300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13317100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13353400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3363,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2041600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2017900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1514400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1751100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1695300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1714700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1676400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1669000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1581700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1569400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1540900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1484900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1486400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1487500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1471200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1476500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,24 +3436,24 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>6200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19856200</v>
+      </c>
+      <c r="E66" s="3">
         <v>19164600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17895900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18154900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17662200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17670500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17556600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17652200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17200800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16681500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16723900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16870300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17513200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16094200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15754300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15816600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6159300</v>
+      </c>
+      <c r="E72" s="3">
         <v>6032700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5855400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6435200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6403500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6313000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6017600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5577400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6289400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6004500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5709400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5091300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4950900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5265000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5163200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5014000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8596400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8456200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7857100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8776700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8828700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8685900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8236500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7692700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8595100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8404400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8373400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8514100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8201000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8435300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8184800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7939900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E81" s="3">
         <v>177400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-361200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>90400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>295500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>440200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-712100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>284900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>295100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>171600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>153300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-314200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>101800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>149200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>69500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E83" s="3">
         <v>40300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>474400</v>
+      </c>
+      <c r="E89" s="3">
         <v>316600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>286200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>254700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>240000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-66400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>78600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>174600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>154300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>222200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>246400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-42500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>219300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>15600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-864300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-621500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>892800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-135300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-201200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-112000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>476000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>32400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>126600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-159000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>91200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-201000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,11 +5092,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-215000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4882,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-154000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E100" s="3">
         <v>398200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-44300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-83700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-159400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-185700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-160600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E101" s="3">
         <v>4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-422100</v>
+      </c>
+      <c r="E102" s="3">
         <v>97500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>376100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>281600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>72700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-260700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>391900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-87800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-127300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>136500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2583100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2426700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1968200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2037300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2116500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2180200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2115000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1938900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1969700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1807200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1712400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1628100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1674600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1673600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1557700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1535700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1462400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3500</v>
+        <v>287900</v>
       </c>
       <c r="E14" s="3">
-        <v>-17000</v>
+        <v>205300</v>
       </c>
       <c r="F14" s="3">
-        <v>31400</v>
+        <v>120700</v>
       </c>
       <c r="G14" s="3">
+        <v>206400</v>
+      </c>
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E15" s="3">
         <v>11200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5300</v>
       </c>
       <c r="O15" s="3">
         <v>5300</v>
       </c>
       <c r="P15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2410300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2328200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1958300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1962100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2219500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2008500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1857400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1751300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2093900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1805400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1503500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1355300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1443300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2175100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1396600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1306800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1347400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E18" s="3">
         <v>98500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>75200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-103000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>171700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>257600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>187600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-124200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>208900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>272800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>231400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-501500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>161100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>228900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>115000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,47 +1345,48 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E20" s="3">
         <v>92800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>242100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-523000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>190400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>143700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>392400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-741800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>370200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>185300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1369,232 +1402,247 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E21" s="3">
         <v>232500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>292300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-414700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>121900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>183000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>430500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>607700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-834100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>403000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>425500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>263200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>260200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-465000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>195200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>264500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E22" s="3">
         <v>23300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E23" s="3">
         <v>167900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>229800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-466200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>129300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>376200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>556400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-890700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>349900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>371800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>208600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>211000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-522300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>140100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>207900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E24" s="3">
         <v>30300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-97800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>71400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>108500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-186300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>73400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-212400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E26" s="3">
         <v>137600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>176500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-368400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>101300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>304800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>447900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-704400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>289500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>298400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>171200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>158400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-309900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>102700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>149400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>69900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E27" s="3">
         <v>126500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>177400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-368100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>90400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>295500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>440200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-712100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>284900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>295100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>171600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>153300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-314200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>101800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>149200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>69500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1829,11 +1889,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>6900</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1849,8 +1909,8 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,47 +2051,50 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-92800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-242100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>523000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-190400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-143700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-392400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>741800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-370200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-185300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E33" s="3">
         <v>126500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>177400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-361200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>90400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>295500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>440200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-712100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>284900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>295100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>171600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>153300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-314200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>101800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>149200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E35" s="3">
         <v>126500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>177400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-361200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>90400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>295500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>440200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-712100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>284900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>295100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>171600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>153300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-314200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>101800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>149200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>791400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1230600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1652700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1555200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1179100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>897500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>824800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>778100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1038800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>646900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>623200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>711000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>838400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>701800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>643700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>624400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>594100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1092300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1089500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1092000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>948000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>928700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>965500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>946200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>842600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>839000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>832000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>856100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>797300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>877800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>852800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>806700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>743700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2751,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20190200</v>
+      </c>
+      <c r="E47" s="3">
         <v>19517100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18609500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16839000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18895900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18895600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18777300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18387800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17639700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19142900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18712400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18552800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18831700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19054500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18680600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18310300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18137200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E48" s="3">
         <v>270200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>272400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>208300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>415100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>418400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>418700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>415300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>195200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>196300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>197700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>198700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>112900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1401600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1411400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1422000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1218500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1209000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1072700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1069000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1005400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1008300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>811900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>809800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>812800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>793900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>798700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>790500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>659900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>663700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>48000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>189800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>10300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>164900</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>61800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>136500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>266300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>185400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>265100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>354900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28927000</v>
+      </c>
+      <c r="E54" s="3">
         <v>28452600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27620900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25752900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26931600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26490800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26356400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25793100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25344900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25795900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25085900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25097300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25384300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25714200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24529500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23939100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23756600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16163100</v>
+      </c>
+      <c r="E59" s="3">
         <v>15777300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15037400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14919600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14924000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14554600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14526600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14642400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14686000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14316300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13955200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14126100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14209900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14895600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13435300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13317100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13353400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,69 +3505,75 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2135900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2041600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2017900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1514400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1751100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1695300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1714700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1676400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1669000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1581700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1569400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1540900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1484900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1486400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1487500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1471200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1476500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>43500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -3439,24 +3584,24 @@
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>6200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3469,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20171300</v>
+      </c>
+      <c r="E66" s="3">
         <v>19856200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19164600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17895900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18154900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17662200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17670500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17556600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17652200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17200800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16681500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16723900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16870300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17513200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16094200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15754300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15816600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6318300</v>
+      </c>
+      <c r="E72" s="3">
         <v>6159300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6032700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5855400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6435200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6403500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6313000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6017600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5577400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6289400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6004500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5709400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5091300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4950900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5265000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5163200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5014000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8755700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8596400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8456200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7857100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8776700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8828700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8685900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8236500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7692700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8595100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8404400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8373400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8514100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8201000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8435300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8184800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7939900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E81" s="3">
         <v>126500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>177400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-361200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>90400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>295500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>440200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-712100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>284900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>295100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>171600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>153300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-314200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>101800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>149200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E83" s="3">
         <v>41300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E89" s="3">
         <v>474400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>316600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>286200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>254700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>240000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-66400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>78600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>174600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>154300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>222200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>246400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-42500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>219300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-691400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-864300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-621500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>892800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-135300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-201200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-112000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>476000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>32400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>126600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-159000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-214000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>91200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-201000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-215000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5119,11 +5352,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-154000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>398200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>19600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-83700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-159400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-185700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-160600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>13200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-439100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-422100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>97500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>376100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>281600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>72700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-260700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>391900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-87800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-127300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>136500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2539000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2583100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2426700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1968200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2037300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2116500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2180200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2115000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1938900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1969700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1807200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1712400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1628100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1674600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1673600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1557700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1535700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1462400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E14" s="3">
         <v>287900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>205300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>120700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>206400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E15" s="3">
         <v>11400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5300</v>
       </c>
       <c r="P15" s="3">
         <v>5300</v>
       </c>
       <c r="Q15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R15" s="3">
         <v>5800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2331100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2410300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2328200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1958300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1962100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2219500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2008500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1857400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1751300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2093900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1805400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1503500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1355300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1443300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2175100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1396600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1306800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1347400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E18" s="3">
         <v>172800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>98500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-103000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>171700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>257600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>187600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-124200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>208900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>272800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>231400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-501500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>161100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>228900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>115000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,50 +1379,51 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E20" s="3">
         <v>77500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>92800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>242100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-523000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>190400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>143700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>392400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-741800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>370200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>185300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1405,244 +1439,259 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>364200</v>
+      </c>
+      <c r="E21" s="3">
         <v>295700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>232500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>292300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-414700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>430500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>607700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-834100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>403000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>425500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>263200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>260200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-465000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>195200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>264500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E22" s="3">
         <v>24300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>296900</v>
+      </c>
+      <c r="E23" s="3">
         <v>226100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>167900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>229800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-466200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>61700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>129300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>376200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>556400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-890700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>349900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>371800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>208600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>211000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-522300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>140100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>207900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>94800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E24" s="3">
         <v>51800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>53400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-97800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>71400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>108500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-186300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>60400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>73400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-212400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>238100</v>
+      </c>
+      <c r="E26" s="3">
         <v>174200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>137600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>176500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-368400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>101300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>304800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>447900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-704400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>289500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>298400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>171200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>158400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-309900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>102700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>149400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>69900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E27" s="3">
         <v>159100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>126500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>177400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-368100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>90400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>295500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>440200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-712100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>284900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>295100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>171600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>153300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-314200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>101800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>149200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>69500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,13 +1935,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1892,11 +1953,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>6900</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1912,8 +1973,8 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,50 +2121,53 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-77500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-92800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-242100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>523000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-190400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-143700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-392400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>741800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-370200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-185300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E33" s="3">
         <v>159100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>126500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>177400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-361200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>90400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>295500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>440200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-712100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>284900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>295100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>171600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>153300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-314200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>101800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>149200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>69500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E35" s="3">
         <v>159100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>126500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>177400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-361200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>90400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>295500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>440200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-712100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>284900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>295100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>171600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>153300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-314200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>101800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>149200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>69500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1197500</v>
+      </c>
+      <c r="E41" s="3">
         <v>791400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1230600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1652700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1555200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1179100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>897500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>824800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>778100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1038800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>646900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>623200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>711000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>838400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>701800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>643700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>624400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>594100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1284200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1145300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1092300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1089500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1092000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>948000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>928700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>965500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>946200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>842600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>839000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>832000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>856100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>797300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>877800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>852800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>806700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>743700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20001000</v>
+      </c>
+      <c r="E47" s="3">
         <v>20190200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19517100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18609500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16839000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18895900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18895600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18777300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18387800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17639700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19142900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18712400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18552800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18831700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19054500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18680600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18310300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18137200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E48" s="3">
         <v>295700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>270200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>272400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>208300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>415100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>418400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>418700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>415300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>195200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>196300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>197700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>198700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>112900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1388900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1401600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1411400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1422000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1218500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1209000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1072700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1069000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1005400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1008300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>811900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>809800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>812800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>793900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>798700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>790500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>659900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>663700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>48000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>189800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>10300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>164900</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>61800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>123900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>136500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>266300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>185400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>265100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>354900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29385900</v>
+      </c>
+      <c r="E54" s="3">
         <v>28927000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28452600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27620900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25752900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26931600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26490800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26356400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25793100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25344900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25795900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25085900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25097300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25384300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25714200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24529500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23939100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23756600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16728400</v>
+      </c>
+      <c r="E59" s="3">
         <v>16163100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15777300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15037400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14919600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14924000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14554600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14526600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14642400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14686000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14316300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13955200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14126100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14209900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14895600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13435300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13317100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13353400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,76 +3648,82 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2080300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2135900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2041600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2017900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1514400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1751100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1695300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1714700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1676400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1669000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1581700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1569400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1540900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1484900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1486400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1487500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1471200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1476500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E62" s="3">
         <v>43500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3587,24 +3733,24 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>6200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20690000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20171300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19856200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19164600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17895900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18154900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17662200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17670500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17556600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17652200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17200800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16681500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16723900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16870300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17513200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16094200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15754300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15816600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6548400</v>
+      </c>
+      <c r="E72" s="3">
         <v>6318300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6159300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6032700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5855400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6435200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6403500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6313000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6017600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5577400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6289400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6004500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5709400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5091300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4950900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5265000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5163200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5014000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8695900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8755700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8596400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8456200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7857100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8776700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8828700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8685900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8236500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7692700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8595100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8404400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8373400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8514100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8201000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8435300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8184800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7939900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E81" s="3">
         <v>159100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>126500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>177400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-361200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>90400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>295500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>440200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-712100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>284900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>295100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>171600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>153300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-314200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>101800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>149200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>69500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E83" s="3">
         <v>45300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>442300</v>
+      </c>
+      <c r="E89" s="3">
         <v>253100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>474400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>316600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>286200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>254700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>240000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-66400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>78600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>154300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>222200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>246400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-42500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>219300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-691400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-864300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-621500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>892800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-135300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-201200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-112000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>476000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-115400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>32400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>126600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-159000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-214000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>91200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-201000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5331,11 +5565,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-215000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -5355,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-154000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>398200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-44300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-83700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-159400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-185700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-160600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-439100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-422100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>97500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>376100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>281600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>72700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-260700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>391900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-87800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-127300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>136500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>30400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2724600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2539000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2583100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2426700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1968200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2037300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2116500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2180200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2115000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1938900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1969700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1807200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1712400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1628100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1674600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1673600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1557700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1535700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1462400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16900</v>
+        <v>-900</v>
       </c>
       <c r="E14" s="3">
-        <v>287900</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="3">
-        <v>205300</v>
+        <v>226300</v>
       </c>
       <c r="G14" s="3">
-        <v>120700</v>
+        <v>266300</v>
       </c>
       <c r="H14" s="3">
-        <v>206400</v>
+        <v>119100</v>
       </c>
       <c r="I14" s="3">
+        <v>203600</v>
+      </c>
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E15" s="3">
         <v>11500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>5300</v>
       </c>
       <c r="Q15" s="3">
         <v>5300</v>
       </c>
       <c r="R15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S15" s="3">
         <v>5800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2382600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2331100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2410300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2328200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1958300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1962100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2219500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2008500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1857400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1751300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2093900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1805400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1503500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1355300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1443300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2175100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1396600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1306800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1347400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E18" s="3">
         <v>207900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>172800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>98500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-103000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>171700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>257600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>187600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-124200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>208900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>272800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>231400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-501500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>161100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>228900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>115000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,53 +1413,54 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E20" s="3">
         <v>112700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>77500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>92800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>242100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-523000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>190400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>143700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>392400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-741800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>370200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>185300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1442,256 +1476,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>588800</v>
+      </c>
+      <c r="E21" s="3">
         <v>364200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>295700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>232500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>292300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-414700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>121900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>430500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>607700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-834100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>403000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>425500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>263200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>260200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-465000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>195200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>264500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>160400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E22" s="3">
         <v>23800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>521900</v>
+      </c>
+      <c r="E23" s="3">
         <v>296900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>226100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>167900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>229800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-466200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>61700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>129300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>376200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>556400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-890700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>349900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>371800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>208600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>211000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-522300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>140100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>207900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>94800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E24" s="3">
         <v>58900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>51800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-97800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>71400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>108500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-186300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>60400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>73400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-212400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E26" s="3">
         <v>238100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>174200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>137600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>176500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-368400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>101300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>304800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>447900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-704400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>289500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>298400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>171200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>158400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-309900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>102700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>149400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>69900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E27" s="3">
         <v>230000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>159100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>126500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>177400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-368100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>90400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>295500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>440200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-712100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>284900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>295100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>171600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>153300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-314200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>101800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>149200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>69500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,16 +1996,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1956,11 +2017,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>6900</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1976,8 +2037,8 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,53 +2191,56 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-112700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-77500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-92800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-242100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>523000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-190400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-143700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-392400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>741800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-370200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-185300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E33" s="3">
         <v>230000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>159100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>126500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>177400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-361200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>90400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>295500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>440200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-712100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>284900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>295100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>171600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>153300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-314200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>101800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>149200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>69500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E35" s="3">
         <v>230000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>159100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>126500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>177400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-361200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>90400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>295500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>440200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-712100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>284900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>295100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>171600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>153300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-314200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>101800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>149200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>69500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>871500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1197500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>791400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1230600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1652700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1555200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1179100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>897500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>824800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>778100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1038800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>646900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>623200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>711000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>838400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>701800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>643700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>624400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>594100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1438500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1284200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1145300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1092300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1089500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1092000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>948000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>928700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>965500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>946200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>842600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>839000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>832000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>856100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>797300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>877800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>852800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>806700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>743700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +2961,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20906100</v>
+      </c>
+      <c r="E47" s="3">
         <v>20001000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20190200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19517100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18609500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16839000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18895900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18895600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18777300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18387800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17639700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19142900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18712400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18552800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18831700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19054500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18680600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18310300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18137200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>302800</v>
+      </c>
+      <c r="E48" s="3">
         <v>269800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>295700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>270200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>272400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>208300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>415100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>418400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>418700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>415300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>195200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>196300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>197700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>198700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>125300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>111400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>112900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1429300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1388900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1401600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1411400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1422000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1218500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1209000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1072700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1069000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1005400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1008300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>811900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>809800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>812800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>793900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>798700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>790500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>659900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>663700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>48000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>189800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>10300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>164900</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>61800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>123900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>136500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>266300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>185400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>265100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>354900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30491700</v>
+      </c>
+      <c r="E54" s="3">
         <v>29385900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28927000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28452600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27620900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25752900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26931600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26490800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26356400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25793100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25344900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25795900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25085900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25097300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25384300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25714200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24529500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23939100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23756600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3661,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17133900</v>
+      </c>
+      <c r="E59" s="3">
         <v>16728400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16163100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15777300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15037400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14919600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14924000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14554600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14526600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14642400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14686000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14316300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13955200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14126100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14209900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14895600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13435300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13317100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13353400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,82 +3791,88 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2063700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2080300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2135900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2041600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2017900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1514400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1751100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1695300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1714700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1676400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1669000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1581700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1569400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1540900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1484900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1486400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1487500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1471200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1476500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E62" s="3">
         <v>5800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3736,24 +3882,24 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>6200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21349600</v>
+      </c>
+      <c r="E66" s="3">
         <v>20690000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20171300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19856200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19164600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17895900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18154900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17662200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17670500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17556600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17652200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17200800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16681500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16723900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16870300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17513200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16094200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15754300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15816600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6952000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6548400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6318300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6159300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6032700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5855400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6435200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6403500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6313000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6017600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5577400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6289400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6004500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5709400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5091300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4950900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5265000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5163200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5014000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9142000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8695900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8755700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8596400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8456200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7857100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8776700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8828700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8685900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8236500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7692700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8595100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8404400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8373400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8514100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8201000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8435300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8184800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7939900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E81" s="3">
         <v>230000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>159100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>126500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>177400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-361200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>90400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>295500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>440200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-712100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>284900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>295100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>171600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>153300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-314200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>101800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>149200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>69500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E83" s="3">
         <v>43600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>45400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>496900</v>
+      </c>
+      <c r="E89" s="3">
         <v>442300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>253100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>474400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>316600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>286200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>254700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>240000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-66400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>174600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>154300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>222200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>246400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-42500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>219300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-703800</v>
+      </c>
+      <c r="E94" s="3">
         <v>102600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-691400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-864300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-621500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>892800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-135300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-201200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-112000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>476000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-115400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-47600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>32400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>126600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-159000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-214000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>91200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-201000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5568,11 +5802,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-215000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5592,11 +5826,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-119700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-127900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>398200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-44300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-83700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-159400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-185700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-160600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-326000</v>
+      </c>
+      <c r="E102" s="3">
         <v>406000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-439100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-422100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>97500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>376100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>281600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-260700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>391900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-87800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-127300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>136500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>30400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>25200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3002600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2724600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2539000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2583100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2426700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1968200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2037300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2116500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2180200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2115000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1938900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1969700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1807200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1712400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1628100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1674600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1673600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1557700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1535700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1462400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>226300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>266300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>119100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>203600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>12400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>5300</v>
       </c>
       <c r="R15" s="3">
         <v>5300</v>
       </c>
       <c r="S15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T15" s="3">
         <v>5800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2952900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2382600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2331100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2410300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2328200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1958300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1962100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2219500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2008500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1857400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1751300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2093900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1805400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1503500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1355300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1443300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2175100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1396600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1306800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1347400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E18" s="3">
         <v>342000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>207900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>172800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>98500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-103000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>171700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>257600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>187600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-124200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>208900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>272800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>231400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-501500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>161100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>228900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>115000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,56 +1447,57 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E20" s="3">
         <v>204000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>112700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>77500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>92800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>242100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-523000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>190400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>143700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>392400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-741800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>370200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>185300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1479,268 +1513,283 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E21" s="3">
         <v>588800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>364200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>295700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>232500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>292300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-414700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>121900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>430500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>607700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-834100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>403000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>425500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>263200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>260200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-465000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>195200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>264500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>160400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E22" s="3">
         <v>24000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E23" s="3">
         <v>521900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>296900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>226100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>167900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>229800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-466200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>61700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>129300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>376200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>556400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-890700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>349900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>371800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>208600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>211000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-522300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>140100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>207900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>94800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E24" s="3">
         <v>102300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>58900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>51800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-97800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>71400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>108500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-186300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>73400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>52600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-212400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>58600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E26" s="3">
         <v>419600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>238100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>174200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>137600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>176500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-368400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>101300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>304800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>447900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-704400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>289500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>298400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>171200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>158400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-309900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>102700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>149400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>69900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E27" s="3">
         <v>403700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>230000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>159100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>126500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>177400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-368100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>90400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>295500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>440200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-712100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>284900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>295100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>171600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>153300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-314200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>101800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>149200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>69500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2071,8 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2020,11 +2081,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>6900</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2040,8 +2101,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,56 +2261,59 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-204000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-112700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-77500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-92800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-242100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>523000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-190400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-143700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-392400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>741800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-370200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-185300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E33" s="3">
         <v>403700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>230000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>159100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>126500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>177400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-361200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>90400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>295500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>440200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-712100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>284900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>295100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>171600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>153300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-314200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>101800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>149200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>69500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E35" s="3">
         <v>403700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>230000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>159100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>126500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>177400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-361200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>90400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>295500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>440200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-712100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>284900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>295100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>171600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>153300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-314200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>101800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>149200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>69500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>995500</v>
+      </c>
+      <c r="E41" s="3">
         <v>871500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1197500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>791400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1230600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1652700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1555200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1179100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>897500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>824800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>778100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1038800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>646900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>623200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>711000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>838400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>701800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>643700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>624400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>594100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1487800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1438500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1284200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1145300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1092300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1089500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1092000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>948000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>928700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>965500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>946200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>842600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>839000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>832000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>856100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>797300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>877800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>852800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>806700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>743700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,203 +3066,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21504100</v>
+      </c>
+      <c r="E47" s="3">
         <v>20906100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20001000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20190200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19517100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18609500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16839000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18895900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18895600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18777300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18387800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17639700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19142900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18712400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18552800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18831700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19054500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18680600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18310300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>18137200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>299400</v>
+      </c>
+      <c r="E48" s="3">
         <v>302800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>269800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>295700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>270200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>272400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>208300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>415100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>418400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>418700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>415300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>195200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>196300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>197700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>198700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>125300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>130400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>111400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>112900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1417900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1429300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1388900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1401600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1411400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1422000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1218500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1209000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1072700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1069000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1005400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1008300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>811900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>809800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>812800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>793900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>798700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>790500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>659900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>663700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,62 +3420,65 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>48000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>189800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>10300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>164900</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>61800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>123900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>136500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>266300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>185400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>265100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>354900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31869200</v>
+      </c>
+      <c r="E54" s="3">
         <v>30491700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29385900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28927000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28452600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27620900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25752900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26931600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26490800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26356400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25793100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25344900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25795900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25085900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25097300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25384300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25714200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24529500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23939100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23756600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,73 +3798,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18204700</v>
+      </c>
+      <c r="E59" s="3">
         <v>17133900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16728400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16163100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15777300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15037400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14919600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14924000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14554600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14526600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14642400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14686000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14316300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13955200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14126100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14209900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14895600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13435300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13317100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13353400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,88 +3934,94 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2552200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2063700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2080300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2135900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2041600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2017900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1514400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1751100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1695300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1714700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1676400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1669000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1581700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1569400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1540900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1484900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1486400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1487500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1471200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1476500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E62" s="3">
         <v>88300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>43500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3885,24 +4031,24 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>6200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23009700</v>
+      </c>
+      <c r="E66" s="3">
         <v>21349600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20690000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20171300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19856200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19164600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17895900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18154900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17662200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17670500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17556600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17652200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17200800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16681500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16723900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16870300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17513200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16094200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15754300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15816600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6837100</v>
+      </c>
+      <c r="E72" s="3">
         <v>6952000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6548400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6318300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6159300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6032700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5855400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6435200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6403500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6313000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6017600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5577400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6289400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6004500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5709400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5091300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4950900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5265000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5163200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5014000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8859500</v>
+      </c>
+      <c r="E76" s="3">
         <v>9142000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8695900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8755700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8596400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8456200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7857100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8776700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8828700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8685900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8236500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7692700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8595100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8404400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8373400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8514100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8201000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8435300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8184800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7939900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E81" s="3">
         <v>403700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>230000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>159100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>126500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>177400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-361200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>90400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>295500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>440200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-712100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>284900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>295100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>171600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>153300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-314200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>101800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>149200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>69500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E83" s="3">
         <v>42900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>45400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E89" s="3">
         <v>496900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>442300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>253100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>474400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>316600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>286200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>254700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>240000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-66400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>174600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>154300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>222200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>246400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-42500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>219300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-894600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-703800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>102600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-691400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-864300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-621500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>892800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-135300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-201200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-112000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>476000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-115400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>32400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>126600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-159000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-214000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>91200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-201000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5805,11 +6039,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-215000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5829,11 +6063,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-154000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-119700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-127900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>398200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-83700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-159400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-185700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-160600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>13200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-326000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>406000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-439100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-422100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>97500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>376100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>281600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-260700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>391900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-127300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>136500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>25200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3229000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3002600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2724600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2539000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2583100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2426700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1968200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2037300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2116500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2180200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2115000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1938900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1969700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1807200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1712400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1628100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1674600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1673600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1557700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1535700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1462400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>735100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>226300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>266300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>119100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>203600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E15" s="3">
         <v>12600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>5300</v>
       </c>
       <c r="S15" s="3">
         <v>5300</v>
       </c>
       <c r="T15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U15" s="3">
         <v>5800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2820400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2952900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2382600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2331100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2410300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2328200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1958300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1962100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2219500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2008500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1857400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1751300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2093900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1805400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1503500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1355300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1443300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2175100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1396600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1306800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1347400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>408600</v>
+      </c>
+      <c r="E18" s="3">
         <v>49700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>342000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>207900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>172800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>98500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-103000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>171700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>257600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>187600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-124200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>208900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>272800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>231400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-501500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>161100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>228900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>115000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,59 +1480,60 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>326200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-136000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>204000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>112700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>77500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>92800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>242100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-523000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>190400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>143700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>392400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-741800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>370200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>185300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1516,280 +1549,295 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>780800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-40800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>588800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>364200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>295700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>232500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>292300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-414700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>430500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>607700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-834100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>403000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>425500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>263200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>260200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-465000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>195200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>264500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>160400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E22" s="3">
         <v>25700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>20200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>705900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-112000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>521900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>296900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>226100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>167900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>229800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-466200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>129300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>376200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>556400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-890700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>349900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>371800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>208600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>211000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-522300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>140100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>207900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>94800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-28500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>102300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>58900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>51800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-97800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>71400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>108500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-186300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>73400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>52600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-212400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>58600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>556600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-83500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>419600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>238100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>174200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>137600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>176500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-368400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>101300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>304800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>447900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-704400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>289500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>298400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>171200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>158400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-309900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>102700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>149400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>69900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>516200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-115000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>403700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>230000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>159100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>126500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>177400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-368100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>90400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>295500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>440200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-712100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>284900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>295100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>171600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>153300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-314200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>101800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>149200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>69500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,8 +2134,8 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2084,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>6900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2104,8 +2164,8 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,59 +2330,62 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-326200</v>
+      </c>
+      <c r="E32" s="3">
         <v>136000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-204000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-112700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-77500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-92800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-242100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>523000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-190400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-143700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-392400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>741800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-370200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-185300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>516200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-115000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>403700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>230000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>159100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>126500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>177400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-361200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>90400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>295500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>440200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-712100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>284900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>295100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>171600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>153300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-314200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>101800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>149200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>69500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>516200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-115000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>403700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>230000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>159100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>126500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>177400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-361200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>90400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>295500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>440200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-712100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>284900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>295100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>171600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>153300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-314200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>101800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>149200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>69500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>928000</v>
+      </c>
+      <c r="E41" s="3">
         <v>995500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>871500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1197500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>791400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1230600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1652700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1555200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1179100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>897500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>824800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>778100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1038800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>646900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>623200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>711000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>838400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>701800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>643700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>624400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>594100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2886,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1458700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1487800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1438500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1284200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1145300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1092300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1089500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1092000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>948000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>928700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>965500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>946200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>842600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>839000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>832000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>856100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>797300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>877800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>852800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>806700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>743700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3170,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21921300</v>
+      </c>
+      <c r="E47" s="3">
         <v>21504100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20906100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20001000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20190200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>19517100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18609500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16839000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18895900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18895600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18777300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18387800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17639700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19142900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18712400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18552800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18831700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19054500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18680600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>18310300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18137200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E48" s="3">
         <v>299400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>302800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>269800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>295700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>270200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>272400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>208300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>415100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>418400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>418700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>415300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>195200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>196300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>197700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>198700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>125300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>130500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>130400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>111400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>112900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1417900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1429300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1388900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1401600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1411400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1422000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1218500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1209000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1072700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1069000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1005400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1008300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>811900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>809800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>812800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>793900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>798700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>790500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>659900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>663700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,62 +3542,65 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>48000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>189800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>10300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>164900</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>61800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>123900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>136500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>266300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>185400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>265100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>354900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32268700</v>
+      </c>
+      <c r="E54" s="3">
         <v>31869200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30491700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29385900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28927000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28452600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27620900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25752900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26931600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26490800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26356400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25793100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25344900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25795900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25085900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25097300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25384300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25714200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24529500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23939100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23756600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3934,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17894300</v>
+      </c>
+      <c r="E59" s="3">
         <v>18204700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17133900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16728400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16163100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15777300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15037400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14919600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14924000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14554600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14526600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14642400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14686000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14316300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13955200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14126100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14209900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14895600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13435300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13317100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13353400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,94 +4076,100 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2847200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2552200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2063700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2080300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2135900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2041600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2017900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1514400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1751100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1695300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1714700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1676400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1669000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1581700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1569400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1540900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1484900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1486400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1487500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1471200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1476500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>43500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4034,24 +4179,24 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>6200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23081800</v>
+      </c>
+      <c r="E66" s="3">
         <v>23009700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21349600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20690000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20171300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19856200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19164600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17895900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18154900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17662200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17670500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17556600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17652200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17200800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16681500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16723900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16870300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17513200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16094200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15754300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15816600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7353200</v>
+      </c>
+      <c r="E72" s="3">
         <v>6837100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6952000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6548400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6318300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6159300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6032700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5855400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6435200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6403500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6313000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6017600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5577400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6289400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6004500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5709400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5091300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4950900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5265000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5163200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5014000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9186900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8859500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9142000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8695900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8755700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8596400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8456200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7857100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8776700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8828700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8685900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8236500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7692700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8595100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8404400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8373400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8514100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8201000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8435300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8184800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7939900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>516200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-115000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>403700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>230000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>159100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>126500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>177400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-361200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>90400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>295500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>440200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-712100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>284900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>295100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>171600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>153300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-314200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>101800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>149200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>69500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E83" s="3">
         <v>45500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>45400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>286100</v>
+      </c>
+      <c r="E89" s="3">
         <v>635000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>496900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>442300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>253100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>474400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>316600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>286200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>254700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>240000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-66400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>174600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>154300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>222200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>246400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-42500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>219300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-4500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-513400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-894600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-703800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>102600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-691400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-864300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-621500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>892800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-201200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-112000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>476000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-115400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-47600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>32400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>126600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-159000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-214000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>91200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-201000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6042,11 +6275,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-215000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6066,11 +6299,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-154000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E100" s="3">
         <v>388700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-127900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-45400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>398200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-83700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-159400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-185700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-160600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E102" s="3">
         <v>124000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-326000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>406000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-439100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-422100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>97500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>376100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>281600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>72700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-260700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>391900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-87800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-127300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>136500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2858100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3229000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3002600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2724600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2539000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2583100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2426700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1968200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2037300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2116500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2180200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2115000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1938900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1969700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1807200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1712400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1628100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1674600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1673600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1557700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1535700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1462400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>735100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>226300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>266300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>119100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>203600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E15" s="3">
         <v>13400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>5300</v>
       </c>
       <c r="T15" s="3">
         <v>5300</v>
       </c>
       <c r="U15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="V15" s="3">
         <v>5800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2473200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2820400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2952900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2382600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2331100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2410300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2328200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1958300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1962100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2219500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2008500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1857400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1751300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2093900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1805400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1503500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1355300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1443300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2175100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1396600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1306800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1347400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>384900</v>
+      </c>
+      <c r="E18" s="3">
         <v>408600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>342000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>207900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>172800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>98500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-103000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>171700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>257600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>187600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>208900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>272800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>231400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-501500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>161100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>228900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>115000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,62 +1514,63 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-138800</v>
+      </c>
+      <c r="E20" s="3">
         <v>326200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-136000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>204000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>112700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>77500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>92800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>242100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-523000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>190400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>143700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>392400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-741800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>370200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>185300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1552,292 +1586,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E21" s="3">
         <v>780800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-40800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>588800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>364200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>295700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>232500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>292300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-414700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>121900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>430500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>607700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-834100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>403000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>425500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>263200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>260200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-465000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>195200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>264500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>160400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E22" s="3">
         <v>28900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>21000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>20900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>20200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E23" s="3">
         <v>705900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-112000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>521900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>296900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>226100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>167900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>229800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-466200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>129300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>376200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>556400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-890700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>349900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>371800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>208600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>211000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-522300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>140100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>207900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>94800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E24" s="3">
         <v>149300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-28500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>102300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>58900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>51800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>53400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-97800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>71400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>108500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-186300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>73400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>52600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-212400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>58600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E26" s="3">
         <v>556600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-83500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>419600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>238100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>174200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>137600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>176500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-368400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>101300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>304800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>447900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-704400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>289500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>298400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>171200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>158400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-309900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>102700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>149400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>69900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E27" s="3">
         <v>516200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-115000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>403700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>159100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>126500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>177400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-368100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>90400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>295500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>440200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-712100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>284900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>295100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>171600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>153300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-314200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>101800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>149200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>69500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2137,8 +2198,8 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2147,11 +2208,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>6900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2167,8 +2228,8 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,62 +2400,65 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-326200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>136000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-204000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-112700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-77500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-92800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-242100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>523000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-190400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-143700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-392400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>741800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-370200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-185300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E33" s="3">
         <v>516200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-115000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>403700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>159100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>126500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>177400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-361200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>90400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>295500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>440200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-712100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>284900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>295100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>171600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>153300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-314200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>101800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>149200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>69500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E35" s="3">
         <v>516200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-115000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>403700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>159100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>126500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>177400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-361200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>90400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>295500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>440200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-712100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>284900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>295100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>171600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>153300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-314200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>101800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>149200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>69500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>993100</v>
+      </c>
+      <c r="E41" s="3">
         <v>928000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>995500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>871500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1197500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>791400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1230600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1652700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1555200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1179100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>897500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>824800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>778100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1038800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>646900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>623200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>711000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>838400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>701800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>643700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>624400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>594100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1528500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1458700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1487800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1438500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1284200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1145300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1092300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1089500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1092000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>948000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>928700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>965500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>946200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>842600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>839000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>832000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>856100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>797300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>877800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>852800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>806700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>743700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,221 +3275,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21301700</v>
+      </c>
+      <c r="E47" s="3">
         <v>21921300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21504100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20906100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20001000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20190200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19517100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18609500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16839000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18895900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18895600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18777300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18387800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17639700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19142900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18712400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18552800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18831700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19054500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>18680600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18310300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18137200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E48" s="3">
         <v>304500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>299400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>302800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>269800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>295700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>270200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>272400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>208300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>415100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>418400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>418700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>415300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>195200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>196300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>197700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>198700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>125300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>130500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>130400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>111400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>112900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1664100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1678000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1417900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1429300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1388900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1401600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1411400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1422000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1218500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1209000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1072700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1069000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1005400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1008300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>811900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>809800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>812800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>793900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>798700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>790500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>659900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>663700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>105000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3545,62 +3665,65 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>48000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>189800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>10300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>164900</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>61800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>123900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>136500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>266300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>185400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>265100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>354900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31894400</v>
+      </c>
+      <c r="E54" s="3">
         <v>32268700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31869200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30491700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29385900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28927000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28452600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27620900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25752900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26931600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26490800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26356400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25793100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25344900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25795900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25085900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25097300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25384300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25714200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24529500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23939100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23756600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,79 +4071,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18127600</v>
+      </c>
+      <c r="E59" s="3">
         <v>17894300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18204700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17133900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16728400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16163100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15777300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15037400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14919600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14924000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14554600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14526600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14642400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14686000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14316300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13955200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14126100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14209900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14895600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13435300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13317100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13353400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,100 +4219,106 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2822800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2847200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2552200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2063700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2080300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2135900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2041600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2017900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1514400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1751100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1695300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1714700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1676400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1669000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1581700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1569400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1540900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1484900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1486400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1487500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1471200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1476500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>57000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>43500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4182,24 +4328,24 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>6200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4212,8 +4358,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23299100</v>
+      </c>
+      <c r="E66" s="3">
         <v>23081800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23009700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21349600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20690000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20171300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19856200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19164600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17895900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18154900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17662200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17670500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17556600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17652200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17200800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16681500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16723900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16870300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17513200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16094200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15754300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15816600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7478900</v>
+      </c>
+      <c r="E72" s="3">
         <v>7353200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6837100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6952000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6548400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6318300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6159300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6032700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5855400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6435200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6403500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6313000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6017600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5577400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6289400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6004500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5709400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5091300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4950900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5265000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5163200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5014000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8595400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9186900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8859500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9142000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8695900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8755700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8596400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8456200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7857100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8776700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8828700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8685900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8236500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7692700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8595100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8404400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8373400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8514100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8201000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8435300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8184800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7939900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E81" s="3">
         <v>516200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-115000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>403700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>159100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>126500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>177400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-361200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>90400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>295500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>440200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-712100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>284900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>295100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>171600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>153300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-314200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>101800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>149200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>69500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E83" s="3">
         <v>46100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>45400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>510900</v>
+      </c>
+      <c r="E89" s="3">
         <v>286100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>635000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>496900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>442300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>253100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>474400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>316600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>286200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>254700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>240000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-66400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>78600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>174600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>154300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>222200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>246400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-42500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>219300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-4500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-303000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-513400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-894600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-703800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>102600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-691400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-864300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-621500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>892800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-135300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-201200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-112000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>476000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-115400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-47600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>32400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>126600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-159000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-214000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>91200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6278,11 +6512,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-215000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6302,11 +6536,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-154000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="E100" s="3">
         <v>163300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>388700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-119700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-127900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>398200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-83700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-159400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-185700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-160600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-67500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>124000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-326000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>406000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-439100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-422100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>97500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>376100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>281600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>72700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-260700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>391900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-87800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-127300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>136500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>58200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>30400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>25200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>58100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/Y_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>Y</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3104700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2858100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3229000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3002600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2724600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2539000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2583100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2426700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1968200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2037300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2116500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2180200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2115000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1938900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1969700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1807200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1712400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1628100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1674600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1673600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1557700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1535700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1462400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1626300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>735100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>226300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>266300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>119100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>203600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E15" s="3">
         <v>14100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>5300</v>
       </c>
       <c r="U15" s="3">
         <v>5300</v>
       </c>
       <c r="V15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W15" s="3">
         <v>5800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2739900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2473200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2820400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2952900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2382600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2331100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2410300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2328200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1958300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1962100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2219500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2008500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1857400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1751300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2093900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1805400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1503500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1355300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1443300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2175100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1396600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1306800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1347400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1398500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E18" s="3">
         <v>384900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>408600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>342000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>207900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>172800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>98500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-103000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>171700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>257600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>187600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-124200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>208900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>272800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>231400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-501500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>161100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>228900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>115000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>227800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,65 +1548,66 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-138800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>326200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-136000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>204000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>112700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>77500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>92800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>242100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-523000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>190400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>143700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>392400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-741800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>370200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>185300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1589,304 +1623,319 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E21" s="3">
         <v>291200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>780800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-40800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>588800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>364200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>295700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>232500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>292300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-414700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>430500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>607700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-834100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>403000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>425500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>263200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>260200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-465000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>195200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>264500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>160400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>268100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E22" s="3">
         <v>32100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>21000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>20900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>20200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="E23" s="3">
         <v>214000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>705900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-112000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>521900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>296900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>226100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>167900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>229800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-466200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>129300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>376200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>556400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-890700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>349900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>371800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>208600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>211000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-522300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>140100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>207900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>94800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>207200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>45100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>149300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-28500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>102300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>58900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>51800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-97800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>71400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>108500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-186300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>73400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>52600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-212400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>58600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>48300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="E26" s="3">
         <v>168900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>556600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-83500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>419600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>238100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>174200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>137600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-368400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>101300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>304800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>447900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-704400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>289500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>298400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>171200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>158400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-309900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>102700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>149400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>69900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E27" s="3">
         <v>125700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>516200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-115000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>403700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>230000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>159100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>126500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>177400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-368100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>90400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>295500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>440200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-712100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>284900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>295100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>171600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>153300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-314200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>101800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>149200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>69500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2201,8 +2262,8 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2211,11 +2272,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>6900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2231,8 +2292,8 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,65 +2470,68 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500200</v>
+      </c>
+      <c r="E32" s="3">
         <v>138800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-326200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>136000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-204000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-112700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-77500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-92800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-242100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>523000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-190400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-143700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-392400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>741800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-370200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-185300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E33" s="3">
         <v>125700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>516200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-115000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>403700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>230000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>159100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>126500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-361200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>90400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>295500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>440200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-712100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>284900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>295100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>171600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>153300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-314200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>101800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>149200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>69500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E35" s="3">
         <v>125700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>516200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-115000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>403700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>230000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>159100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>126500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-361200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>90400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>295500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>440200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-712100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>284900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>295100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>171600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>153300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-314200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>101800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>149200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>69500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>941500</v>
+      </c>
+      <c r="E41" s="3">
         <v>993100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>928000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>995500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>871500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1197500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>791400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1230600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1652700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1555200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1179100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>897500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>824800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>778100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1038800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>646900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>623200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>711000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>838400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>701800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>643700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>624400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>594100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>568900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1627300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1528500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1458700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1487800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1438500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1284200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1145300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1092300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1089500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1092000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>948000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>928700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>965500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>946200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>842600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>839000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>832000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>856100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>797300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>877800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>852800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>806700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>743700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>796400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,230 +3380,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20157400</v>
+      </c>
+      <c r="E47" s="3">
         <v>21301700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21921300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21504100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20906100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20001000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20190200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19517100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18609500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16839000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18895900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18895600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18777300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18387800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17639700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19142900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18712400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18552800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18831700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19054500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18680600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18310300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>18137200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>18532700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>319700</v>
+      </c>
+      <c r="E48" s="3">
         <v>303600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>304500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>299400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>302800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>269800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>295700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>270200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>272400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>208300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>415100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>418400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>418700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>415300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>195200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>196300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>197700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>198700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>125300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>130500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>130400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>111400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>112900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>109800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1622700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1664100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1678000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1417900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1429300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1388900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1401600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1411400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1422000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1218500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1209000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1072700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1069000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1005400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1008300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>811900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>809800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>812800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>793900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>798700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>790500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>659900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>663700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>635300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,17 +3765,20 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E52" s="3">
         <v>105000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3668,62 +3788,65 @@
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>189800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>10300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>164900</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>61800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>123900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>136500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>266300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>185400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>265100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>354900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31007900</v>
+      </c>
+      <c r="E54" s="3">
         <v>31894400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32268700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31869200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30491700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29385900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28927000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28452600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27620900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25752900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26931600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26490800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26356400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25793100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25344900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25795900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25085900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25097300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25384300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25714200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24529500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23939100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23756600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>24117000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,82 +4208,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18309100</v>
+      </c>
+      <c r="E59" s="3">
         <v>18127600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17894300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18204700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17133900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16728400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16163100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15777300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15037400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14919600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14924000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14554600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14526600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14642400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14686000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14316300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13955200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14126100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14209900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14895600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13435300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13317100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13353400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13399600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,82 +4362,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2339600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2822800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2847200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2552200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2063700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2080300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2135900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2041600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2017900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1514400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1751100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1695300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1714700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1676400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1669000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1581700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1569400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1540900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1484900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1486400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1487500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1471200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1476500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1383700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4305,23 +4451,23 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>57000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4331,24 +4477,24 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>6200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4361,8 +4507,8 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23101200</v>
+      </c>
+      <c r="E66" s="3">
         <v>23299100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23081800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23009700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21349600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20690000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20171300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19856200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19164600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17895900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18154900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17662200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17670500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17556600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17652200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17200800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16681500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16723900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16870300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17513200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16094200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15754300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15816600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16011900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7307300</v>
+      </c>
+      <c r="E72" s="3">
         <v>7478900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7353200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6837100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6952000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6548400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6318300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6159300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6032700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5855400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6435200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6403500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6313000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6017600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5577400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6289400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6004500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5709400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5091300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4950900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5265000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5163200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5014000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4944500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7906700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8595400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9186900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8859500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9142000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8695900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8755700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8596400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8456200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7857100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8776700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8828700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8685900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8236500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7692700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8595100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8404400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8373400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8514100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8201000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8435300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8184800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7939900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>8105100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E81" s="3">
         <v>125700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>516200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-115000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>403700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>230000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>159100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>126500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-361200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>90400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>295500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>440200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-712100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>284900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>295100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>171600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>153300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-314200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>101800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>149200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>69500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>155800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E83" s="3">
         <v>45100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>33100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>35700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>45400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>641200</v>
+      </c>
+      <c r="E89" s="3">
         <v>510900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>286100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>635000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>496900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>442300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>253100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>474400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>316600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>286200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>254700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>240000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>174600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>154300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>222200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>246400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-42500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>219300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>252000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-303000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-513400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-894600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-703800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>102600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-691400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-864300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-621500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>892800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-201200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>476000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-115400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-47600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>32400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>126600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-159000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-214000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>91200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-201000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6515,11 +6749,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-215000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6539,11 +6773,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-154000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-514300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-134800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>163300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>388700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-127900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>398200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-44300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-83700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-159400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-185700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-160600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>43200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E102" s="3">
         <v>65100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-67500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>124000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-326000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>406000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-439100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-422100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>376100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>281600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>72700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-260700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>391900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-87800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-127300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>136500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>58200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>30400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>25200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>58100</v>
       </c>
     </row>
